--- a/rules/CORE-000372/negative/01/data/unit-test-coreid-CG0269-negative.xlsx
+++ b/rules/CORE-000372/negative/01/data/unit-test-coreid-CG0269-negative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1085569\Desktop\CDISC Docs\CORE\CG0269\negative\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/Documents/github/core-contributor/rules/CORE-000372/negative/01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8119F111-F432-4270-BE6C-C4C0AA91739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37938434-D216-5749-86DD-AEB413697E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="23260" windowHeight="12460" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="91" r:id="rId1"/>
@@ -337,12 +337,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -669,9 +669,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -687,7 +687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -708,14 +708,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -741,24 +741,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2717467-3F3C-4C62-871D-FBCCD724C126}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -828,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>50</v>
       </c>
@@ -898,7 +898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -930,7 +930,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -962,7 +962,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -984,6 +984,7 @@
       <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
         <v>51</v>
       </c>
@@ -994,7 +995,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1013,9 +1014,11 @@
       <c r="F8" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="G8"/>
       <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="I8"/>
       <c r="J8" t="s">
         <v>53</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1045,6 +1048,7 @@
       <c r="G9" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
         <v>52</v>
       </c>
@@ -1055,33 +1059,93 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1091,14 +1155,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comment xmlns="9dee18c2-6da5-44c1-913e-bf7f393fe0e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090ADB40D834AE945B19FCDA4041AC0CB" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5af17c441566f77e07d4cd515c36d457">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9dee18c2-6da5-44c1-913e-bf7f393fe0e8" xmlns:ns3="63ea592b-d684-45c7-8cdc-fad8f8e6bb41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d99986eebd6ee913767c2253c03acd8" ns2:_="" ns3:_="">
     <xsd:import namespace="9dee18c2-6da5-44c1-913e-bf7f393fe0e8"/>
@@ -1321,7 +1377,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1330,7 +1386,42 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comment xmlns="9dee18c2-6da5-44c1-913e-bf7f393fe0e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA1034F-B208-40A1-B476-1ACC28603C2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9dee18c2-6da5-44c1-913e-bf7f393fe0e8"/>
+    <ds:schemaRef ds:uri="63ea592b-d684-45c7-8cdc-fad8f8e6bb41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C50B4EEA-1106-4CB7-A5BC-0A848978062E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FA5107-05BF-4288-86B7-39124584DC8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1338,16 +1429,4 @@
     <ds:schemaRef ds:uri="9dee18c2-6da5-44c1-913e-bf7f393fe0e8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA1034F-B208-40A1-B476-1ACC28603C2A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C50B4EEA-1106-4CB7-A5BC-0A848978062E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rules/CORE-000372/negative/01/data/unit-test-coreid-CG0269-negative.xlsx
+++ b/rules/CORE-000372/negative/01/data/unit-test-coreid-CG0269-negative.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sheet/Domain</t>
+          <t>Sheet</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
